--- a/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T17:39:20+00:00</t>
+    <t>2024-11-26T15:50:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-26T15:50:42+00:00</t>
+    <t>2024-11-27T13:42:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-27T13:42:46+00:00</t>
+    <t>2024-11-27T17:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-27T17:30:53+00:00</t>
+    <t>2024-11-27T17:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-27T17:55:52+00:00</t>
+    <t>2024-11-28T08:27:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T08:27:58+00:00</t>
+    <t>2024-12-02T11:47:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T11:47:28+00:00</t>
+    <t>2024-12-02T13:23:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T13:23:17+00:00</t>
+    <t>2024-12-02T14:14:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T14:14:26+00:00</t>
+    <t>2024-12-02T15:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T15:53:34+00:00</t>
+    <t>2024-12-02T17:30:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T17:30:27+00:00</t>
+    <t>2024-12-02T17:50:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T17:50:26+00:00</t>
+    <t>2024-12-02T18:10:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T18:10:43+00:00</t>
+    <t>2024-12-02T18:24:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T18:24:17+00:00</t>
+    <t>2024-12-03T13:53:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
+++ b/patch-exemple-rorlocation/ig/ValueSet-ror-include-associated-data-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T13:53:16+00:00</t>
+    <t>2024-12-03T16:51:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
